--- a/dataExcel/【内格夫（StatTrak™） _ 动力装载机 (久经沙场)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【内格夫（StatTrak™） _ 动力装载机 (久经沙场)】Buff近1个月-总览.xlsx
@@ -422,159 +422,159 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 21:49:10</v>
+        <v>2023-09-17 23:47:23</v>
       </c>
       <c r="B8">
-        <v>25.3</v>
+        <v>25.52</v>
       </c>
       <c r="C8">
-        <v>31.35</v>
+        <v>31.42</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>23.2</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 02:58:39</v>
+        <v>2023-09-18 04:55:54</v>
       </c>
       <c r="B9">
-        <v>25.62</v>
+        <v>25.52</v>
       </c>
       <c r="C9">
-        <v>31.28</v>
+        <v>31.57</v>
       </c>
       <c r="D9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 08:06:26</v>
+        <v>2023-09-18 10:05:19</v>
       </c>
       <c r="B10">
-        <v>25.52</v>
+        <v>25.42</v>
       </c>
       <c r="C10">
-        <v>31.35</v>
+        <v>31.57</v>
       </c>
       <c r="D10">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E10">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 13:25:09</v>
+        <v>2023-09-18 15:16:48</v>
       </c>
       <c r="B11">
-        <v>25.62</v>
+        <v>25.5</v>
       </c>
       <c r="C11">
-        <v>31.13</v>
+        <v>31.57</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 18:35:07</v>
+        <v>2023-09-18 20:27:34</v>
       </c>
       <c r="B12">
-        <v>25.32</v>
+        <v>25.29</v>
       </c>
       <c r="C12">
-        <v>31.28</v>
+        <v>31.57</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 23:47:23</v>
+        <v>2023-09-19 01:37:23</v>
       </c>
       <c r="B13">
-        <v>25.52</v>
+        <v>23.1</v>
       </c>
       <c r="C13">
-        <v>31.42</v>
+        <v>31.79</v>
       </c>
       <c r="D13">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E13">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 04:55:54</v>
+        <v>2023-09-19 06:46:53</v>
       </c>
       <c r="B14">
-        <v>25.52</v>
+        <v>23.1</v>
       </c>
       <c r="C14">
-        <v>31.57</v>
+        <v>31.87</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 10:05:19</v>
+        <v>2023-09-19 11:55:45</v>
       </c>
       <c r="B15">
-        <v>25.42</v>
+        <v>25.27</v>
       </c>
       <c r="C15">
-        <v>31.57</v>
+        <v>31.87</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E15">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -582,439 +582,439 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 15:16:48</v>
+        <v>2023-09-19 17:07:53</v>
       </c>
       <c r="B16">
-        <v>25.5</v>
+        <v>24.95</v>
       </c>
       <c r="C16">
-        <v>31.57</v>
+        <v>31.87</v>
       </c>
       <c r="D16">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E16">
-        <v>23.4</v>
+        <v>21.9</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 20:27:34</v>
+        <v>2023-09-19 22:17:05</v>
       </c>
       <c r="B17">
-        <v>25.29</v>
+        <v>24.75</v>
       </c>
       <c r="C17">
-        <v>31.57</v>
+        <v>31.65</v>
       </c>
       <c r="D17">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E17">
-        <v>23.5</v>
+        <v>21.9</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 01:37:23</v>
+        <v>2023-09-20 03:28:04</v>
       </c>
       <c r="B18">
-        <v>23.1</v>
+        <v>24.75</v>
       </c>
       <c r="C18">
-        <v>31.79</v>
+        <v>31.65</v>
       </c>
       <c r="D18">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E18">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 06:46:53</v>
+        <v>2023-09-20 08:37:56</v>
       </c>
       <c r="B19">
-        <v>23.1</v>
+        <v>24.7</v>
       </c>
       <c r="C19">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="D19">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E19">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 11:55:45</v>
+        <v>2023-09-20 13:46:13</v>
       </c>
       <c r="B20">
-        <v>25.27</v>
+        <v>24.75</v>
       </c>
       <c r="C20">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="D20">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E20">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 17:07:53</v>
+        <v>2023-09-20 18:51:21</v>
       </c>
       <c r="B21">
-        <v>24.95</v>
+        <v>24.78</v>
       </c>
       <c r="C21">
-        <v>31.87</v>
+        <v>31.89</v>
       </c>
       <c r="D21">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E21">
-        <v>21.9</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 22:17:05</v>
+        <v>2023-09-21 00:01:07</v>
       </c>
       <c r="B22">
-        <v>24.75</v>
+        <v>24.67</v>
       </c>
       <c r="C22">
-        <v>31.65</v>
+        <v>31.89</v>
       </c>
       <c r="D22">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E22">
-        <v>21.9</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-20 03:28:04</v>
+        <v>2023-09-21 05:11:31</v>
       </c>
       <c r="B23">
-        <v>24.75</v>
+        <v>24.66</v>
       </c>
       <c r="C23">
-        <v>31.65</v>
+        <v>32.65</v>
       </c>
       <c r="D23">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E23">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 08:37:56</v>
+        <v>2023-09-21 10:21:35</v>
       </c>
       <c r="B24">
-        <v>24.7</v>
+        <v>24.66</v>
       </c>
       <c r="C24">
-        <v>31.89</v>
+        <v>31.85</v>
       </c>
       <c r="D24">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E24">
         <v>22.4</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 13:46:13</v>
+        <v>2023-09-21 15:32:30</v>
       </c>
       <c r="B25">
-        <v>24.75</v>
+        <v>24.65</v>
       </c>
       <c r="C25">
-        <v>31.89</v>
+        <v>30.68</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 18:51:21</v>
+        <v>2023-09-21 20:41:10</v>
       </c>
       <c r="B26">
-        <v>24.78</v>
+        <v>24.55</v>
       </c>
       <c r="C26">
-        <v>31.89</v>
+        <v>30.68</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-21 00:01:07</v>
+        <v>2023-09-22 01:50:57</v>
       </c>
       <c r="B27">
-        <v>24.67</v>
+        <v>24.33</v>
       </c>
       <c r="C27">
-        <v>31.89</v>
+        <v>30.68</v>
       </c>
       <c r="D27">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 05:11:31</v>
+        <v>2023-09-22 07:03:12</v>
       </c>
       <c r="B28">
-        <v>24.66</v>
+        <v>24.33</v>
       </c>
       <c r="C28">
-        <v>32.65</v>
+        <v>31.2</v>
       </c>
       <c r="D28">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E28">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 10:21:35</v>
+        <v>2023-09-22 12:11:35</v>
       </c>
       <c r="B29">
-        <v>24.66</v>
+        <v>23.99</v>
       </c>
       <c r="C29">
-        <v>31.85</v>
+        <v>31.2</v>
       </c>
       <c r="D29">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 15:32:30</v>
+        <v>2023-09-22 17:22:25</v>
       </c>
       <c r="B30">
-        <v>24.65</v>
+        <v>24.31</v>
       </c>
       <c r="C30">
-        <v>30.68</v>
+        <v>31.2</v>
       </c>
       <c r="D30">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E30">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 20:41:10</v>
+        <v>2023-09-22 22:31:16</v>
       </c>
       <c r="B31">
-        <v>24.55</v>
+        <v>24.56</v>
       </c>
       <c r="C31">
-        <v>30.68</v>
+        <v>30.91</v>
       </c>
       <c r="D31">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E31">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 01:50:57</v>
+        <v>2023-09-23 03:42:17</v>
       </c>
       <c r="B32">
-        <v>24.33</v>
+        <v>24.9</v>
       </c>
       <c r="C32">
-        <v>30.68</v>
+        <v>30.87</v>
       </c>
       <c r="D32">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E32">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 07:03:12</v>
+        <v>2023-09-23 08:52:02</v>
       </c>
       <c r="B33">
-        <v>24.33</v>
+        <v>24.7</v>
       </c>
       <c r="C33">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="D33">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 12:11:35</v>
+        <v>2023-09-23 14:02:14</v>
       </c>
       <c r="B34">
-        <v>23.99</v>
+        <v>25.78</v>
       </c>
       <c r="C34">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="D34">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E34">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 17:22:25</v>
+        <v>2023-09-23 19:11:37</v>
       </c>
       <c r="B35">
-        <v>24.31</v>
+        <v>25.78</v>
       </c>
       <c r="C35">
-        <v>31.2</v>
+        <v>32.99</v>
       </c>
       <c r="D35">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E35">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 22:31:16</v>
+        <v>2023-09-24 00:25:35</v>
       </c>
       <c r="B36">
-        <v>24.56</v>
+        <v>25.47</v>
       </c>
       <c r="C36">
-        <v>30.91</v>
+        <v>32.9</v>
       </c>
       <c r="D36">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E36">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-23 03:42:17</v>
+        <v>2023-09-24 05:31:42</v>
       </c>
       <c r="B37">
-        <v>24.9</v>
+        <v>25.45</v>
       </c>
       <c r="C37">
-        <v>30.87</v>
+        <v>32.9</v>
       </c>
       <c r="D37">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E37">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="F37">
         <v>18</v>
@@ -1022,113 +1022,113 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 08:52:02</v>
+        <v>2023-09-24 10:42:39</v>
       </c>
       <c r="B38">
-        <v>24.7</v>
+        <v>25.46</v>
       </c>
       <c r="C38">
-        <v>30.87</v>
+        <v>32.9</v>
       </c>
       <c r="D38">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E38">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="F38">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 14:02:14</v>
+        <v>2023-09-24 15:51:41</v>
       </c>
       <c r="B39">
-        <v>25.78</v>
+        <v>25.16</v>
       </c>
       <c r="C39">
-        <v>30.87</v>
+        <v>32.9</v>
       </c>
       <c r="D39">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E39">
         <v>23</v>
       </c>
       <c r="F39">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 19:11:37</v>
+        <v>2023-09-24 21:01:40</v>
       </c>
       <c r="B40">
-        <v>25.78</v>
+        <v>25.15</v>
       </c>
       <c r="C40">
-        <v>32.99</v>
+        <v>32.69</v>
       </c>
       <c r="D40">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E40">
-        <v>23.5</v>
+        <v>22.3</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-24 00:25:35</v>
+        <v>2023-09-25 02:11:38</v>
       </c>
       <c r="B41">
-        <v>25.47</v>
+        <v>25.16</v>
       </c>
       <c r="C41">
-        <v>32.9</v>
+        <v>32.25</v>
       </c>
       <c r="D41">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E41">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 05:31:42</v>
+        <v>2023-09-25 07:22:18</v>
       </c>
       <c r="B42">
-        <v>25.45</v>
+        <v>25.16</v>
       </c>
       <c r="C42">
-        <v>32.9</v>
+        <v>32.84</v>
       </c>
       <c r="D42">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 10:42:39</v>
+        <v>2023-09-25 12:31:44</v>
       </c>
       <c r="B43">
-        <v>25.46</v>
+        <v>25</v>
       </c>
       <c r="C43">
-        <v>32.9</v>
+        <v>32.84</v>
       </c>
       <c r="D43">
         <v>205</v>
@@ -1137,18 +1137,18 @@
         <v>23.2</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 15:51:41</v>
+        <v>2023-09-25 17:42:11</v>
       </c>
       <c r="B44">
-        <v>25.16</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>32.9</v>
+        <v>32.84</v>
       </c>
       <c r="D44">
         <v>210</v>
@@ -1157,84 +1157,84 @@
         <v>23</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 21:01:40</v>
+        <v>2023-09-25 22:51:52</v>
       </c>
       <c r="B45">
-        <v>25.15</v>
+        <v>24.76</v>
       </c>
       <c r="C45">
-        <v>32.69</v>
+        <v>32.84</v>
       </c>
       <c r="D45">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E45">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-25 02:11:38</v>
+        <v>2023-09-26 04:04:26</v>
       </c>
       <c r="B46">
-        <v>25.16</v>
+        <v>24.76</v>
       </c>
       <c r="C46">
-        <v>32.25</v>
+        <v>32.9</v>
       </c>
       <c r="D46">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E46">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 07:22:18</v>
+        <v>2023-09-26 09:14:00</v>
       </c>
       <c r="B47">
-        <v>25.16</v>
+        <v>24.89</v>
       </c>
       <c r="C47">
-        <v>32.84</v>
+        <v>32.76</v>
       </c>
       <c r="D47">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E47">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F47">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 12:31:44</v>
+        <v>2023-09-26 14:24:14</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>24.78</v>
       </c>
       <c r="C48">
-        <v>32.84</v>
+        <v>32.76</v>
       </c>
       <c r="D48">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E48">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F48">
         <v>16</v>
@@ -1242,859 +1242,859 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 17:42:11</v>
+        <v>2023-09-26 19:32:13</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>32.84</v>
+        <v>32.76</v>
       </c>
       <c r="D49">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E49">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 22:51:52</v>
+        <v>2023-09-27 00:42:12</v>
       </c>
       <c r="B50">
-        <v>24.76</v>
+        <v>23.99</v>
       </c>
       <c r="C50">
-        <v>32.84</v>
+        <v>32.9</v>
       </c>
       <c r="D50">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E50">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-26 04:04:26</v>
+        <v>2023-09-27 05:53:17</v>
       </c>
       <c r="B51">
-        <v>24.76</v>
+        <v>23.89</v>
       </c>
       <c r="C51">
-        <v>32.9</v>
+        <v>32.97</v>
       </c>
       <c r="D51">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E51">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 09:14:00</v>
+        <v>2023-09-27 11:03:26</v>
       </c>
       <c r="B52">
-        <v>24.89</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>32.76</v>
+        <v>32.9</v>
       </c>
       <c r="D52">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 14:24:14</v>
+        <v>2023-09-27 16:13:12</v>
       </c>
       <c r="B53">
-        <v>24.78</v>
+        <v>24.42</v>
       </c>
       <c r="C53">
-        <v>32.76</v>
+        <v>32.97</v>
       </c>
       <c r="D53">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E53">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 19:32:13</v>
+        <v>2023-09-27 21:22:53</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>24.33</v>
       </c>
       <c r="C54">
-        <v>32.76</v>
+        <v>32.61</v>
       </c>
       <c r="D54">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E54">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-27 00:42:12</v>
+        <v>2023-09-28 02:33:56</v>
       </c>
       <c r="B55">
-        <v>23.99</v>
+        <v>24.33</v>
       </c>
       <c r="C55">
-        <v>32.9</v>
+        <v>32.97</v>
       </c>
       <c r="D55">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E55">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-27 05:53:17</v>
+        <v>2023-09-28 07:44:02</v>
       </c>
       <c r="B56">
-        <v>23.89</v>
+        <v>24.43</v>
       </c>
       <c r="C56">
-        <v>32.97</v>
+        <v>31.73</v>
       </c>
       <c r="D56">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E56">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 11:03:26</v>
+        <v>2023-09-28 12:53:41</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>24.43</v>
       </c>
       <c r="C57">
-        <v>32.9</v>
+        <v>30.85</v>
       </c>
       <c r="D57">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E57">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 16:13:12</v>
+        <v>2023-09-28 18:04:14</v>
       </c>
       <c r="B58">
-        <v>24.42</v>
+        <v>23.78</v>
       </c>
       <c r="C58">
-        <v>32.97</v>
+        <v>30.85</v>
       </c>
       <c r="D58">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E58">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 21:22:53</v>
+        <v>2023-09-28 23:14:26</v>
       </c>
       <c r="B59">
-        <v>24.33</v>
+        <v>23.77</v>
       </c>
       <c r="C59">
-        <v>32.61</v>
+        <v>30.85</v>
       </c>
       <c r="D59">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E59">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="F59">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-28 02:33:56</v>
+        <v>2023-09-29 04:23:19</v>
       </c>
       <c r="B60">
-        <v>24.33</v>
+        <v>23.98</v>
       </c>
       <c r="C60">
-        <v>32.97</v>
+        <v>32.78</v>
       </c>
       <c r="D60">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E60">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 07:44:02</v>
+        <v>2023-09-29 09:33:58</v>
       </c>
       <c r="B61">
-        <v>24.43</v>
+        <v>23.7</v>
       </c>
       <c r="C61">
-        <v>31.73</v>
+        <v>30.88</v>
       </c>
       <c r="D61">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E61">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="F61">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 12:53:41</v>
+        <v>2023-09-29 14:43:45</v>
       </c>
       <c r="B62">
-        <v>24.43</v>
+        <v>23.98</v>
       </c>
       <c r="C62">
-        <v>30.85</v>
+        <v>30.88</v>
       </c>
       <c r="D62">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 18:04:14</v>
+        <v>2023-09-29 19:53:32</v>
       </c>
       <c r="B63">
-        <v>23.78</v>
+        <v>23.46</v>
       </c>
       <c r="C63">
-        <v>30.85</v>
+        <v>30.88</v>
       </c>
       <c r="D63">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E63">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 23:14:26</v>
+        <v>2023-09-30 01:04:21</v>
       </c>
       <c r="B64">
-        <v>23.77</v>
+        <v>23.35</v>
       </c>
       <c r="C64">
-        <v>30.85</v>
+        <v>33.22</v>
       </c>
       <c r="D64">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E64">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="F64">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-29 04:23:19</v>
+        <v>2023-09-30 06:11:05</v>
       </c>
       <c r="B65">
-        <v>23.98</v>
+        <v>23.25</v>
       </c>
       <c r="C65">
-        <v>32.78</v>
+        <v>29.55</v>
       </c>
       <c r="D65">
         <v>215</v>
       </c>
       <c r="E65">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 09:33:58</v>
+        <v>2023-09-30 11:20:32</v>
       </c>
       <c r="B66">
-        <v>23.7</v>
+        <v>23.1</v>
       </c>
       <c r="C66">
-        <v>30.88</v>
+        <v>32.54</v>
       </c>
       <c r="D66">
         <v>218</v>
       </c>
       <c r="E66">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 14:43:45</v>
+        <v>2023-09-30 16:30:07</v>
       </c>
       <c r="B67">
-        <v>23.98</v>
+        <v>22.49</v>
       </c>
       <c r="C67">
-        <v>30.88</v>
+        <v>34.22</v>
       </c>
       <c r="D67">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="E67">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="F67">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 19:53:32</v>
+        <v>2023-09-30 21:38:53</v>
       </c>
       <c r="B68">
-        <v>23.46</v>
+        <v>22.6</v>
       </c>
       <c r="C68">
-        <v>30.88</v>
+        <v>33.92</v>
       </c>
       <c r="D68">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E68">
-        <v>21</v>
+        <v>21.6</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-30 01:04:21</v>
+        <v>2023-10-01 02:48:51</v>
       </c>
       <c r="B69">
-        <v>23.35</v>
+        <v>22.18</v>
       </c>
       <c r="C69">
-        <v>33.22</v>
+        <v>30.79</v>
       </c>
       <c r="D69">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E69">
         <v>21</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 06:11:05</v>
+        <v>2023-10-01 07:59:15</v>
       </c>
       <c r="B70">
-        <v>23.25</v>
+        <v>22.08</v>
       </c>
       <c r="C70">
-        <v>29.55</v>
+        <v>30.2</v>
       </c>
       <c r="D70">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E70">
         <v>21</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 11:20:32</v>
+        <v>2023-10-01 13:10:40</v>
       </c>
       <c r="B71">
-        <v>23.1</v>
+        <v>21.37</v>
       </c>
       <c r="C71">
-        <v>32.54</v>
+        <v>29.18</v>
       </c>
       <c r="D71">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E71">
-        <v>21.1</v>
+        <v>20.2</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 16:30:07</v>
+        <v>2023-10-01 18:20:21</v>
       </c>
       <c r="B72">
-        <v>22.49</v>
+        <v>20.29</v>
       </c>
       <c r="C72">
-        <v>34.22</v>
+        <v>30.2</v>
       </c>
       <c r="D72">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 21:38:53</v>
+        <v>2023-10-01 23:29:26</v>
       </c>
       <c r="B73">
-        <v>22.6</v>
+        <v>20.49</v>
       </c>
       <c r="C73">
-        <v>33.92</v>
+        <v>29.98</v>
       </c>
       <c r="D73">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E73">
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-10-01 02:48:51</v>
+        <v>2023-10-02 04:39:17</v>
       </c>
       <c r="B74">
-        <v>22.18</v>
+        <v>20.77</v>
       </c>
       <c r="C74">
-        <v>30.79</v>
+        <v>27.83</v>
       </c>
       <c r="D74">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E74">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 07:59:15</v>
+        <v>2023-10-02 09:49:16</v>
       </c>
       <c r="B75">
-        <v>22.08</v>
+        <v>20.32</v>
       </c>
       <c r="C75">
-        <v>30.2</v>
+        <v>29.48</v>
       </c>
       <c r="D75">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 13:10:40</v>
+        <v>2023-10-02 14:59:15</v>
       </c>
       <c r="B76">
-        <v>21.37</v>
+        <v>20.77</v>
       </c>
       <c r="C76">
-        <v>29.18</v>
+        <v>29.27</v>
       </c>
       <c r="D76">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E76">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 18:20:21</v>
+        <v>2023-10-02 20:09:55</v>
       </c>
       <c r="B77">
-        <v>20.29</v>
+        <v>20.68</v>
       </c>
       <c r="C77">
-        <v>30.2</v>
+        <v>28.12</v>
       </c>
       <c r="D77">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E77">
         <v>20</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 23:29:26</v>
+        <v>2023-10-03 01:19:55</v>
       </c>
       <c r="B78">
-        <v>20.49</v>
+        <v>20.67</v>
       </c>
       <c r="C78">
-        <v>29.98</v>
+        <v>29.48</v>
       </c>
       <c r="D78">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="F78">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-02 04:39:17</v>
+        <v>2023-10-03 06:29:35</v>
       </c>
       <c r="B79">
-        <v>20.77</v>
+        <v>20.67</v>
       </c>
       <c r="C79">
-        <v>27.83</v>
+        <v>29.45</v>
       </c>
       <c r="D79">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="F79">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 09:49:16</v>
+        <v>2023-10-03 11:39:35</v>
       </c>
       <c r="B80">
-        <v>20.32</v>
+        <v>20.56</v>
       </c>
       <c r="C80">
-        <v>29.48</v>
+        <v>29.52</v>
       </c>
       <c r="D80">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 14:59:15</v>
+        <v>2023-10-03 16:51:58</v>
       </c>
       <c r="B81">
-        <v>20.77</v>
+        <v>20.66</v>
       </c>
       <c r="C81">
-        <v>29.27</v>
+        <v>29.52</v>
       </c>
       <c r="D81">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 20:09:55</v>
+        <v>2023-10-03 21:59:42</v>
       </c>
       <c r="B82">
-        <v>20.68</v>
+        <v>20.79</v>
       </c>
       <c r="C82">
-        <v>28.12</v>
+        <v>29.52</v>
       </c>
       <c r="D82">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-03 01:19:55</v>
+        <v>2023-10-04 03:11:34</v>
       </c>
       <c r="B83">
-        <v>20.67</v>
+        <v>20.69</v>
       </c>
       <c r="C83">
-        <v>29.48</v>
+        <v>29.52</v>
       </c>
       <c r="D83">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E83">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 06:29:35</v>
+        <v>2023-10-04 08:21:09</v>
       </c>
       <c r="B84">
-        <v>20.67</v>
+        <v>20.79</v>
       </c>
       <c r="C84">
-        <v>29.45</v>
+        <v>29.44</v>
       </c>
       <c r="D84">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E84">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="F84">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 11:39:35</v>
+        <v>2023-10-04 13:29:54</v>
       </c>
       <c r="B85">
-        <v>20.56</v>
+        <v>20.66</v>
       </c>
       <c r="C85">
-        <v>29.52</v>
+        <v>28.79</v>
       </c>
       <c r="D85">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>19.89</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 16:51:58</v>
+        <v>2023-10-04 18:41:27</v>
       </c>
       <c r="B86">
-        <v>20.66</v>
+        <v>20.76</v>
       </c>
       <c r="C86">
-        <v>29.52</v>
+        <v>30.3</v>
       </c>
       <c r="D86">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E86">
-        <v>19.2</v>
+        <v>18.6</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 21:59:42</v>
+        <v>2023-10-04 23:51:58</v>
       </c>
       <c r="B87">
-        <v>20.79</v>
+        <v>22.17</v>
       </c>
       <c r="C87">
-        <v>29.52</v>
+        <v>31.53</v>
       </c>
       <c r="D87">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>19.5</v>
       </c>
       <c r="F87">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-04 03:11:34</v>
+        <v>2023-10-05 05:00:42</v>
       </c>
       <c r="B88">
-        <v>20.69</v>
+        <v>22.17</v>
       </c>
       <c r="C88">
-        <v>29.52</v>
+        <v>31.53</v>
       </c>
       <c r="D88">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E88">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="F88">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 08:21:09</v>
+        <v>2023-10-05 10:10:59</v>
       </c>
       <c r="B89">
-        <v>20.79</v>
+        <v>22.07</v>
       </c>
       <c r="C89">
-        <v>29.44</v>
+        <v>31.53</v>
       </c>
       <c r="D89">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E89">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="F89">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 13:29:54</v>
+        <v>2023-10-05 15:20:20</v>
       </c>
       <c r="B90">
-        <v>20.66</v>
+        <v>22.05</v>
       </c>
       <c r="C90">
-        <v>28.79</v>
+        <v>31.53</v>
       </c>
       <c r="D90">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E90">
-        <v>19.89</v>
+        <v>20.1</v>
       </c>
       <c r="F90">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 18:41:27</v>
+        <v>2023-10-05 20:31:51</v>
       </c>
       <c r="B91">
-        <v>20.76</v>
+        <v>21.95</v>
       </c>
       <c r="C91">
-        <v>30.3</v>
+        <v>29.44</v>
       </c>
       <c r="D91">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>18.6</v>
+        <v>20.5</v>
       </c>
       <c r="F91">
         <v>16</v>
@@ -2102,416 +2102,416 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 23:51:58</v>
+        <v>2023-10-06 01:40:28</v>
       </c>
       <c r="B92">
-        <v>22.17</v>
+        <v>21.94</v>
       </c>
       <c r="C92">
-        <v>31.53</v>
+        <v>30.09</v>
       </c>
       <c r="D92">
         <v>229</v>
       </c>
       <c r="E92">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="F92">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-05 05:00:42</v>
+        <v>2023-10-06 06:52:06</v>
       </c>
       <c r="B93">
-        <v>22.17</v>
+        <v>21.94</v>
       </c>
       <c r="C93">
-        <v>31.53</v>
+        <v>28.8</v>
       </c>
       <c r="D93">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E93">
-        <v>19.8</v>
+        <v>20.39</v>
       </c>
       <c r="F93">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 10:10:59</v>
+        <v>2023-10-06 12:00:47</v>
       </c>
       <c r="B94">
-        <v>22.07</v>
+        <v>21.94</v>
       </c>
       <c r="C94">
-        <v>31.53</v>
+        <v>29.09</v>
       </c>
       <c r="D94">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E94">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 15:20:20</v>
+        <v>2023-10-06 17:10:38</v>
       </c>
       <c r="B95">
-        <v>22.05</v>
+        <v>22.59</v>
       </c>
       <c r="C95">
-        <v>31.53</v>
+        <v>30.31</v>
       </c>
       <c r="D95">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E95">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="F95">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 20:31:51</v>
+        <v>2023-10-06 22:21:21</v>
       </c>
       <c r="B96">
-        <v>21.95</v>
+        <v>22.35</v>
       </c>
       <c r="C96">
-        <v>29.44</v>
+        <v>30.31</v>
       </c>
       <c r="D96">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E96">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="F96">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-06 01:40:28</v>
+        <v>2023-10-07 03:31:25</v>
       </c>
       <c r="B97">
-        <v>21.94</v>
+        <v>22.34</v>
       </c>
       <c r="C97">
-        <v>30.09</v>
+        <v>30.1</v>
       </c>
       <c r="D97">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E97">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="F97">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 06:52:06</v>
+        <v>2023-10-07 08:40:51</v>
       </c>
       <c r="B98">
-        <v>21.94</v>
+        <v>22.25</v>
       </c>
       <c r="C98">
-        <v>28.8</v>
+        <v>29.93</v>
       </c>
       <c r="D98">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E98">
-        <v>20.39</v>
+        <v>21.5</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 12:00:47</v>
+        <v>2023-10-07 13:51:49</v>
       </c>
       <c r="B99">
-        <v>21.94</v>
+        <v>22.25</v>
       </c>
       <c r="C99">
-        <v>29.09</v>
+        <v>30.08</v>
       </c>
       <c r="D99">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="E99">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 17:10:38</v>
+        <v>2023-10-07 19:00:56</v>
       </c>
       <c r="B100">
-        <v>22.59</v>
+        <v>22.13</v>
       </c>
       <c r="C100">
-        <v>30.31</v>
+        <v>29.43</v>
       </c>
       <c r="D100">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E100">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 22:21:21</v>
+        <v>2023-10-08 00:04:37</v>
       </c>
       <c r="B101">
-        <v>22.35</v>
+        <v>22.12</v>
       </c>
       <c r="C101">
-        <v>30.31</v>
+        <v>30.22</v>
       </c>
       <c r="D101">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E101">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="F101">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-07 03:31:25</v>
+        <v>2023-10-08 05:14:54</v>
       </c>
       <c r="B102">
-        <v>22.34</v>
+        <v>22.12</v>
       </c>
       <c r="C102">
-        <v>30.1</v>
+        <v>30.22</v>
       </c>
       <c r="D102">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E102">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 08:40:51</v>
+        <v>2023-10-08 10:24:42</v>
       </c>
       <c r="B103">
-        <v>22.25</v>
+        <v>21.83</v>
       </c>
       <c r="C103">
-        <v>29.93</v>
+        <v>30.22</v>
       </c>
       <c r="D103">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E103">
         <v>21.5</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 13:51:49</v>
+        <v>2023-10-08 15:35:03</v>
       </c>
       <c r="B104">
-        <v>22.25</v>
+        <v>21.6</v>
       </c>
       <c r="C104">
-        <v>30.08</v>
+        <v>30.22</v>
       </c>
       <c r="D104">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E104">
         <v>21.5</v>
       </c>
       <c r="F104">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 19:00:56</v>
+        <v>2023-10-08 20:44:47</v>
       </c>
       <c r="B105">
-        <v>22.13</v>
+        <v>21.7</v>
       </c>
       <c r="C105">
-        <v>29.43</v>
+        <v>30.22</v>
       </c>
       <c r="D105">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E105">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="F105">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-08 00:04:37</v>
+        <v>2023-10-09 01:55:15</v>
       </c>
       <c r="B106">
-        <v>22.12</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>30.22</v>
       </c>
       <c r="D106">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E106">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-08 05:14:54</v>
+        <v>2023-10-09 07:04:50</v>
       </c>
       <c r="B107">
-        <v>22.12</v>
+        <v>21.9</v>
       </c>
       <c r="C107">
         <v>30.22</v>
       </c>
       <c r="D107">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E107">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="F107">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 10:24:42</v>
+        <v>2023-10-09 12:14:48</v>
       </c>
       <c r="B108">
-        <v>21.83</v>
+        <v>21.79</v>
       </c>
       <c r="C108">
-        <v>30.22</v>
+        <v>30.29</v>
       </c>
       <c r="D108">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E108">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 15:35:03</v>
+        <v>2023-10-09 17:24:47</v>
       </c>
       <c r="B109">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="C109">
-        <v>30.22</v>
+        <v>30</v>
       </c>
       <c r="D109">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E109">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 20:44:47</v>
+        <v>2023-10-09 22:34:48</v>
       </c>
       <c r="B110">
-        <v>21.7</v>
+        <v>21.91</v>
       </c>
       <c r="C110">
-        <v>30.22</v>
+        <v>30</v>
       </c>
       <c r="D110">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E110">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="F110">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-09 01:55:15</v>
+        <v>2023-10-10 03:44:47</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>22.03</v>
       </c>
       <c r="C111">
-        <v>30.22</v>
+        <v>30</v>
       </c>
       <c r="D111">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E111">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F111">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 07:04:50</v>
+        <v>2023-10-10 08:54:46</v>
       </c>
       <c r="B112">
-        <v>21.9</v>
+        <v>21.83</v>
       </c>
       <c r="C112">
-        <v>30.22</v>
+        <v>30.7</v>
       </c>
       <c r="D112">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E112">
         <v>20.2</v>
@@ -2522,119 +2522,119 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 12:14:48</v>
+        <v>2023-10-10 14:04:44</v>
       </c>
       <c r="B113">
-        <v>21.79</v>
+        <v>21.91</v>
       </c>
       <c r="C113">
-        <v>30.29</v>
+        <v>30.7</v>
       </c>
       <c r="D113">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E113">
         <v>20.2</v>
       </c>
       <c r="F113">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 17:24:47</v>
+        <v>2023-10-10 19:14:42</v>
       </c>
       <c r="B114">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="D114">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E114">
-        <v>20.2</v>
+        <v>20.39</v>
       </c>
       <c r="F114">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 22:34:48</v>
+        <v>2023-10-11 00:24:54</v>
       </c>
       <c r="B115">
-        <v>21.91</v>
+        <v>22.35</v>
       </c>
       <c r="C115">
-        <v>30</v>
+        <v>33.97</v>
       </c>
       <c r="D115">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E115">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="F115">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-10 03:44:47</v>
+        <v>2023-10-11 05:34:47</v>
       </c>
       <c r="B116">
-        <v>22.03</v>
+        <v>22.35</v>
       </c>
       <c r="C116">
-        <v>30</v>
+        <v>33.92</v>
       </c>
       <c r="D116">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E116">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="F116">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 08:54:46</v>
+        <v>2023-10-11 10:47:00</v>
       </c>
       <c r="B117">
-        <v>21.83</v>
+        <v>22.25</v>
       </c>
       <c r="C117">
-        <v>30.7</v>
+        <v>34.86</v>
       </c>
       <c r="D117">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E117">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F117">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 14:04:44</v>
+        <v>2023-10-11 15:55:09</v>
       </c>
       <c r="B118">
-        <v>21.91</v>
+        <v>22.05</v>
       </c>
       <c r="C118">
-        <v>30.7</v>
+        <v>34.58</v>
       </c>
       <c r="D118">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E118">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="F118">
         <v>19</v>
@@ -2642,19 +2642,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 19:14:42</v>
+        <v>2023-10-11 21:05:00</v>
       </c>
       <c r="B119">
-        <v>21.5</v>
+        <v>21.76</v>
       </c>
       <c r="C119">
-        <v>30.7</v>
+        <v>34.51</v>
       </c>
       <c r="D119">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E119">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F119">
         <v>19</v>
@@ -2662,139 +2662,139 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-11 00:24:54</v>
+        <v>2023-10-12 02:14:51</v>
       </c>
       <c r="B120">
-        <v>22.35</v>
+        <v>21.76</v>
       </c>
       <c r="C120">
-        <v>33.97</v>
+        <v>35.53</v>
       </c>
       <c r="D120">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E120">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F120">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-11 05:34:47</v>
+        <v>2023-10-12 07:24:49</v>
       </c>
       <c r="B121">
-        <v>22.35</v>
+        <v>22.05</v>
       </c>
       <c r="C121">
-        <v>33.92</v>
+        <v>34.24</v>
       </c>
       <c r="D121">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E121">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F121">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 10:47:00</v>
+        <v>2023-10-12 12:34:48</v>
       </c>
       <c r="B122">
-        <v>22.25</v>
+        <v>22.15</v>
       </c>
       <c r="C122">
-        <v>34.86</v>
+        <v>31.9</v>
       </c>
       <c r="D122">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E122">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 15:55:09</v>
+        <v>2023-10-12 17:44:46</v>
       </c>
       <c r="B123">
-        <v>22.05</v>
+        <v>22.02</v>
       </c>
       <c r="C123">
-        <v>34.58</v>
+        <v>30.74</v>
       </c>
       <c r="D123">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E123">
         <v>20.6</v>
       </c>
       <c r="F123">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 21:05:00</v>
+        <v>2023-10-12 22:54:44</v>
       </c>
       <c r="B124">
-        <v>21.76</v>
+        <v>21.88</v>
       </c>
       <c r="C124">
-        <v>34.51</v>
+        <v>30.74</v>
       </c>
       <c r="D124">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E124">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="F124">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-12 02:14:51</v>
+        <v>2023-10-13 04:04:42</v>
       </c>
       <c r="B125">
-        <v>21.76</v>
+        <v>21.78</v>
       </c>
       <c r="C125">
-        <v>35.53</v>
+        <v>30.74</v>
       </c>
       <c r="D125">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E125">
         <v>20.3</v>
       </c>
       <c r="F125">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 07:24:49</v>
+        <v>2023-10-13 09:14:42</v>
       </c>
       <c r="B126">
-        <v>22.05</v>
+        <v>21.67</v>
       </c>
       <c r="C126">
-        <v>34.24</v>
+        <v>30.89</v>
       </c>
       <c r="D126">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E126">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F126">
         <v>17</v>
@@ -2802,79 +2802,79 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 12:34:48</v>
+        <v>2023-10-13 14:26:13</v>
       </c>
       <c r="B127">
-        <v>22.15</v>
+        <v>21.88</v>
       </c>
       <c r="C127">
-        <v>31.9</v>
+        <v>34.4</v>
       </c>
       <c r="D127">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E127">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 17:44:46</v>
+        <v>2023-10-13 19:35:37</v>
       </c>
       <c r="B128">
-        <v>22.02</v>
+        <v>21.87</v>
       </c>
       <c r="C128">
-        <v>30.74</v>
+        <v>31.69</v>
       </c>
       <c r="D128">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E128">
-        <v>20.6</v>
+        <v>20.39</v>
       </c>
       <c r="F128">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 22:54:44</v>
+        <v>2023-10-14 00:44:54</v>
       </c>
       <c r="B129">
-        <v>21.88</v>
+        <v>21.67</v>
       </c>
       <c r="C129">
-        <v>30.74</v>
+        <v>34.4</v>
       </c>
       <c r="D129">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E129">
-        <v>20.6</v>
+        <v>20.39</v>
       </c>
       <c r="F129">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-13 04:04:42</v>
+        <v>2023-10-14 05:54:53</v>
       </c>
       <c r="B130">
-        <v>21.78</v>
+        <v>20.67</v>
       </c>
       <c r="C130">
-        <v>30.74</v>
+        <v>30.83</v>
       </c>
       <c r="D130">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E130">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F130">
         <v>17</v>
@@ -2882,19 +2882,19 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 09:14:42</v>
+        <v>2023-10-14 11:04:51</v>
       </c>
       <c r="B131">
-        <v>21.67</v>
+        <v>21.15</v>
       </c>
       <c r="C131">
-        <v>30.89</v>
+        <v>34.4</v>
       </c>
       <c r="D131">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E131">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F131">
         <v>17</v>
@@ -2902,16 +2902,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 14:26:13</v>
+        <v>2023-10-14 16:14:52</v>
       </c>
       <c r="B132">
-        <v>21.88</v>
+        <v>21.15</v>
       </c>
       <c r="C132">
         <v>34.4</v>
       </c>
       <c r="D132">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E132">
         <v>20.39</v>
@@ -2922,282 +2922,282 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 19:35:37</v>
+        <v>2023-10-14 21:26:19</v>
       </c>
       <c r="B133">
-        <v>21.87</v>
+        <v>22</v>
       </c>
       <c r="C133">
-        <v>31.69</v>
+        <v>31.12</v>
       </c>
       <c r="D133">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E133">
         <v>20.39</v>
       </c>
       <c r="F133">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-14 00:44:54</v>
+        <v>2023-10-15 02:35:38</v>
       </c>
       <c r="B134">
-        <v>21.67</v>
+        <v>21.9</v>
       </c>
       <c r="C134">
-        <v>34.4</v>
+        <v>31.12</v>
       </c>
       <c r="D134">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E134">
-        <v>20.39</v>
+        <v>21.4</v>
       </c>
       <c r="F134">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-14 05:54:53</v>
+        <v>2023-10-15 07:45:05</v>
       </c>
       <c r="B135">
-        <v>20.67</v>
+        <v>21.9</v>
       </c>
       <c r="C135">
-        <v>30.83</v>
+        <v>34.4</v>
       </c>
       <c r="D135">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E135">
-        <v>20.39</v>
+        <v>21.4</v>
       </c>
       <c r="F135">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 11:04:51</v>
+        <v>2023-10-15 12:55:03</v>
       </c>
       <c r="B136">
-        <v>21.15</v>
+        <v>21.8</v>
       </c>
       <c r="C136">
-        <v>34.4</v>
+        <v>34.47</v>
       </c>
       <c r="D136">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E136">
-        <v>20.39</v>
+        <v>19.8</v>
       </c>
       <c r="F136">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 16:14:52</v>
+        <v>2023-10-15 17:58:41</v>
       </c>
       <c r="B137">
-        <v>21.15</v>
+        <v>21.67</v>
       </c>
       <c r="C137">
-        <v>34.4</v>
+        <v>34.04</v>
       </c>
       <c r="D137">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E137">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F137">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 21:26:19</v>
+        <v>2023-10-15 23:10:50</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>22.14</v>
       </c>
       <c r="C138">
-        <v>31.12</v>
+        <v>30.82</v>
       </c>
       <c r="D138">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E138">
         <v>20.39</v>
       </c>
       <c r="F138">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-15 02:35:38</v>
+        <v>2023-10-16 04:18:45</v>
       </c>
       <c r="B139">
-        <v>21.9</v>
+        <v>22.14</v>
       </c>
       <c r="C139">
-        <v>31.12</v>
+        <v>33.15</v>
       </c>
       <c r="D139">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E139">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="F139">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 07:45:05</v>
+        <v>2023-10-16 09:28:29</v>
       </c>
       <c r="B140">
-        <v>21.9</v>
+        <v>22.14</v>
       </c>
       <c r="C140">
-        <v>34.4</v>
+        <v>33.09</v>
       </c>
       <c r="D140">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E140">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F140">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 12:55:03</v>
+        <v>2023-10-16 14:38:28</v>
       </c>
       <c r="B141">
-        <v>21.8</v>
+        <v>22.25</v>
       </c>
       <c r="C141">
-        <v>34.47</v>
+        <v>33.09</v>
       </c>
       <c r="D141">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E141">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="F141">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 17:58:41</v>
+        <v>2023-10-16 19:49:28</v>
       </c>
       <c r="B142">
-        <v>21.67</v>
+        <v>22.35</v>
       </c>
       <c r="C142">
-        <v>34.04</v>
+        <v>33.88</v>
       </c>
       <c r="D142">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E142">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="F142">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 23:10:50</v>
+        <v>2023-10-17 00:59:44</v>
       </c>
       <c r="B143">
-        <v>22.14</v>
+        <v>22.4</v>
       </c>
       <c r="C143">
-        <v>30.82</v>
+        <v>33.88</v>
       </c>
       <c r="D143">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E143">
         <v>20.39</v>
       </c>
       <c r="F143">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-16 04:18:45</v>
+        <v>2023-10-17 06:09:59</v>
       </c>
       <c r="B144">
-        <v>22.14</v>
+        <v>22.4</v>
       </c>
       <c r="C144">
-        <v>33.15</v>
+        <v>36.63</v>
       </c>
       <c r="D144">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E144">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="F144">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 09:28:29</v>
+        <v>2023-10-17 11:18:44</v>
       </c>
       <c r="B145">
-        <v>22.14</v>
+        <v>21.9</v>
       </c>
       <c r="C145">
-        <v>33.09</v>
+        <v>36.99</v>
       </c>
       <c r="D145">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="E145">
-        <v>20.39</v>
+        <v>21</v>
       </c>
       <c r="F145">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 14:38:28</v>
+        <v>2023-10-17 16:28:44</v>
       </c>
       <c r="B146">
-        <v>22.25</v>
+        <v>22.58</v>
       </c>
       <c r="C146">
-        <v>33.09</v>
+        <v>36.99</v>
       </c>
       <c r="D146">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F146">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
